--- a/REGULAR/OJT/ANACAY, ABNER.xlsx
+++ b/REGULAR/OJT/ANACAY, ABNER.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF85072-B1F5-47BE-AE5D-A9FF4D1098AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="444">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1360,12 +1359,18 @@
   </si>
   <si>
     <t>UT(1-2-44)</t>
+  </si>
+  <si>
+    <t>SL(19-0-0)</t>
+  </si>
+  <si>
+    <t>5/22/2023 - 6/15/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2056,26 +2061,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K689" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K689" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K691" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K691"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2382,34 +2387,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K689"/>
+  <dimension ref="A2:K691"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A625" activePane="bottomLeft"/>
+      <selection activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="H639" sqref="H639"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2430,7 +2435,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2450,7 +2455,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2472,7 +2477,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="F5" s="1" t="s">
         <v>122</v>
@@ -2483,7 +2488,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2496,7 +2501,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2513,7 +2518,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2548,7 +2553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2557,7 +2562,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.038000000000125</v>
+        <v>67.288000000000125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2567,12 +2572,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>212.3</v>
+        <v>194.55</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>79</v>
       </c>
@@ -2590,7 +2595,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>34335</v>
       </c>
@@ -2616,7 +2621,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>34366</v>
       </c>
@@ -2642,7 +2647,7 @@
         <v>34393</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>34394</v>
       </c>
@@ -2666,7 +2671,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="20" t="s">
         <v>90</v>
@@ -2688,7 +2693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>88</v>
@@ -2710,7 +2715,7 @@
         <v>34424</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>34425</v>
       </c>
@@ -2736,7 +2741,7 @@
         <v>34446</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>103</v>
@@ -2758,7 +2763,7 @@
         <v>34443</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>103</v>
@@ -2780,7 +2785,7 @@
         <v>34439</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>97</v>
       </c>
@@ -2802,7 +2807,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>34455</v>
       </c>
@@ -2826,7 +2831,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>88</v>
@@ -2848,7 +2853,7 @@
         <v>34485</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>34486</v>
       </c>
@@ -2872,7 +2877,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>48</v>
@@ -2894,7 +2899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>34516</v>
       </c>
@@ -2918,7 +2923,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>88</v>
@@ -2940,7 +2945,7 @@
         <v>34546</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>34547</v>
       </c>
@@ -2962,7 +2967,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>88</v>
@@ -2984,7 +2989,7 @@
         <v>34575</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>88</v>
@@ -3006,7 +3011,7 @@
         <v>34577</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>34578</v>
       </c>
@@ -3032,7 +3037,7 @@
         <v>34607</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>102</v>
@@ -3052,7 +3057,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="48"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>34608</v>
       </c>
@@ -3078,7 +3083,7 @@
         <v>34620</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>103</v>
@@ -3100,7 +3105,7 @@
         <v>34631</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>104</v>
@@ -3120,7 +3125,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>34639</v>
       </c>
@@ -3146,7 +3151,7 @@
         <v>34668</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>34669</v>
       </c>
@@ -3172,7 +3177,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>107</v>
@@ -3192,7 +3197,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>80</v>
       </c>
@@ -3210,7 +3215,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>34700</v>
       </c>
@@ -3236,7 +3241,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>103</v>
@@ -3258,7 +3263,7 @@
         <v>34724</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>109</v>
@@ -3278,7 +3283,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>34731</v>
       </c>
@@ -3304,7 +3309,7 @@
         <v>34754</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>88</v>
@@ -3326,7 +3331,7 @@
         <v>34758</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>110</v>
@@ -3346,7 +3351,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="48"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>34759</v>
       </c>
@@ -3372,7 +3377,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>112</v>
@@ -3392,7 +3397,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>34790</v>
       </c>
@@ -3418,7 +3423,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>103</v>
@@ -3440,7 +3445,7 @@
         <v>34816</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>115</v>
@@ -3460,7 +3465,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>34820</v>
       </c>
@@ -3486,7 +3491,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>103</v>
@@ -3508,7 +3513,7 @@
         <v>34846</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>118</v>
@@ -3528,7 +3533,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>34851</v>
       </c>
@@ -3554,7 +3559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>51</v>
@@ -3576,7 +3581,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>103</v>
@@ -3598,7 +3603,7 @@
         <v>34873</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>120</v>
@@ -3618,7 +3623,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>34881</v>
       </c>
@@ -3644,7 +3649,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>90</v>
@@ -3666,7 +3671,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="20" t="s">
         <v>124</v>
@@ -3686,7 +3691,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>34912</v>
       </c>
@@ -3712,7 +3717,7 @@
         <v>34942</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>127</v>
@@ -3732,7 +3737,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>34943</v>
       </c>
@@ -3756,7 +3761,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>129</v>
@@ -3776,7 +3781,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>34973</v>
       </c>
@@ -3802,7 +3807,7 @@
         <v>34974</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>130</v>
@@ -3822,7 +3827,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>103</v>
@@ -3844,7 +3849,7 @@
         <v>34997</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>35004</v>
       </c>
@@ -3870,7 +3875,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>132</v>
@@ -3890,7 +3895,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>35034</v>
       </c>
@@ -3916,7 +3921,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>103</v>
@@ -3938,7 +3943,7 @@
         <v>35052</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>115</v>
@@ -3958,7 +3963,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
         <v>81</v>
       </c>
@@ -3976,7 +3981,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>35065</v>
       </c>
@@ -4002,7 +4007,7 @@
         <v>35091</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>35096</v>
       </c>
@@ -4028,7 +4033,7 @@
         <v>35118</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>103</v>
@@ -4050,7 +4055,7 @@
         <v>35122</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>134</v>
@@ -4070,7 +4075,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>35125</v>
       </c>
@@ -4096,7 +4101,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>51</v>
@@ -4118,7 +4123,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>137</v>
@@ -4138,7 +4143,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>35156</v>
       </c>
@@ -4164,7 +4169,7 @@
         <v>35163</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>103</v>
@@ -4186,7 +4191,7 @@
         <v>35173</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>103</v>
@@ -4208,7 +4213,7 @@
         <v>35177</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>103</v>
@@ -4230,7 +4235,7 @@
         <v>35179</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>138</v>
@@ -4250,7 +4255,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>35186</v>
       </c>
@@ -4276,7 +4281,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>140</v>
@@ -4296,7 +4301,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>35217</v>
       </c>
@@ -4322,7 +4327,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>103</v>
@@ -4344,7 +4349,7 @@
         <v>35220</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>103</v>
@@ -4366,7 +4371,7 @@
         <v>35234</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>103</v>
@@ -4388,7 +4393,7 @@
         <v>35334</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>142</v>
@@ -4408,7 +4413,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>35247</v>
       </c>
@@ -4428,7 +4433,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>35278</v>
       </c>
@@ -4448,7 +4453,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>35309</v>
       </c>
@@ -4470,7 +4475,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>51</v>
@@ -4492,7 +4497,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>143</v>
@@ -4514,7 +4519,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>35339</v>
       </c>
@@ -4540,7 +4545,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>90</v>
@@ -4562,7 +4567,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>35370</v>
       </c>
@@ -4582,7 +4587,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>35400</v>
       </c>
@@ -4608,7 +4613,7 @@
         <v>35416</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>113</v>
@@ -4630,7 +4635,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>103</v>
@@ -4652,7 +4657,7 @@
         <v>35423</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>149</v>
@@ -4672,7 +4677,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
         <v>82</v>
       </c>
@@ -4690,7 +4695,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>35431</v>
       </c>
@@ -4716,7 +4721,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>152</v>
@@ -4736,7 +4741,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>35462</v>
       </c>
@@ -4762,7 +4767,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>103</v>
@@ -4782,7 +4787,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>153</v>
@@ -4802,7 +4807,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>35490</v>
       </c>
@@ -4828,7 +4833,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>51</v>
@@ -4850,7 +4855,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>103</v>
@@ -4872,7 +4877,7 @@
         <v>35501</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>103</v>
@@ -4894,7 +4899,7 @@
         <v>35515</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>158</v>
@@ -4914,7 +4919,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>35521</v>
       </c>
@@ -4938,7 +4943,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>90</v>
@@ -4960,7 +4965,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>103</v>
@@ -4982,7 +4987,7 @@
         <v>35544</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>152</v>
@@ -5002,7 +5007,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>35551</v>
       </c>
@@ -5028,7 +5033,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>103</v>
@@ -5050,7 +5055,7 @@
         <v>35573</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>161</v>
@@ -5070,7 +5075,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>35582</v>
       </c>
@@ -5096,7 +5101,7 @@
         <v>35588</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>163</v>
@@ -5116,7 +5121,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>35612</v>
       </c>
@@ -5142,7 +5147,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>164</v>
@@ -5162,7 +5167,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>35643</v>
       </c>
@@ -5188,7 +5193,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>103</v>
@@ -5210,7 +5215,7 @@
         <v>35646</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>166</v>
@@ -5230,7 +5235,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>35674</v>
       </c>
@@ -5256,7 +5261,7 @@
         <v>35776</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>88</v>
@@ -5278,7 +5283,7 @@
         <v>35793</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>103</v>
@@ -5300,7 +5305,7 @@
         <v>35691</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>168</v>
@@ -5320,7 +5325,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="48"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>35704</v>
       </c>
@@ -5346,7 +5351,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>88</v>
@@ -5368,7 +5373,7 @@
         <v>35734</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>169</v>
@@ -5388,7 +5393,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>35735</v>
       </c>
@@ -5414,7 +5419,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>48</v>
@@ -5436,7 +5441,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>173</v>
@@ -5456,7 +5461,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>35765</v>
       </c>
@@ -5482,7 +5487,7 @@
         <v>35788</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>174</v>
@@ -5502,7 +5507,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="48"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>83</v>
       </c>
@@ -5520,7 +5525,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>35796</v>
       </c>
@@ -5544,7 +5549,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>35827</v>
       </c>
@@ -5570,7 +5575,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>35855</v>
       </c>
@@ -5596,7 +5601,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>48</v>
@@ -5616,7 +5621,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>103</v>
@@ -5638,7 +5643,7 @@
         <v>35877</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>35886</v>
       </c>
@@ -5662,7 +5667,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>35916</v>
       </c>
@@ -5686,7 +5691,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>88</v>
@@ -5706,7 +5711,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>103</v>
@@ -5728,7 +5733,7 @@
         <v>35923</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>181</v>
@@ -5748,7 +5753,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>35947</v>
       </c>
@@ -5774,7 +5779,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>182</v>
@@ -5794,7 +5799,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>35977</v>
       </c>
@@ -5818,7 +5823,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>36008</v>
       </c>
@@ -5842,7 +5847,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>36039</v>
       </c>
@@ -5868,7 +5873,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>48</v>
@@ -5890,7 +5895,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>185</v>
@@ -5910,7 +5915,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>36069</v>
       </c>
@@ -5934,7 +5939,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>36100</v>
       </c>
@@ -5958,7 +5963,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>36130</v>
       </c>
@@ -5978,7 +5983,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="47" t="s">
         <v>84</v>
       </c>
@@ -5996,7 +6001,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>36161</v>
       </c>
@@ -6016,7 +6021,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>36192</v>
       </c>
@@ -6042,7 +6047,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>173</v>
@@ -6062,7 +6067,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>36220</v>
       </c>
@@ -6088,7 +6093,7 @@
         <v>36227</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>88</v>
@@ -6110,7 +6115,7 @@
         <v>36231</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>105</v>
@@ -6132,7 +6137,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>88</v>
@@ -6154,7 +6159,7 @@
         <v>36241</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>193</v>
@@ -6174,7 +6179,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="48"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>36251</v>
       </c>
@@ -6198,7 +6203,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>88</v>
@@ -6220,7 +6225,7 @@
         <v>36255</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>195</v>
@@ -6244,7 +6249,7 @@
         <v>36266</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>195</v>
@@ -6266,7 +6271,7 @@
         <v>36273</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>195</v>
@@ -6288,7 +6293,7 @@
         <v>36279</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>196</v>
@@ -6308,7 +6313,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="48"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>36281</v>
       </c>
@@ -6336,7 +6341,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>199</v>
@@ -6356,7 +6361,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>36312</v>
       </c>
@@ -6380,7 +6385,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>36342</v>
       </c>
@@ -6406,7 +6411,7 @@
         <v>36357</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>99</v>
@@ -6426,7 +6431,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>36373</v>
       </c>
@@ -6450,7 +6455,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>36404</v>
       </c>
@@ -6474,7 +6479,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>36434</v>
       </c>
@@ -6500,7 +6505,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>88</v>
@@ -6522,7 +6527,7 @@
         <v>36458</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>36465</v>
       </c>
@@ -6546,7 +6551,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>36495</v>
       </c>
@@ -6570,7 +6575,7 @@
         <v>36507</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>174</v>
@@ -6590,7 +6595,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>47</v>
@@ -6610,7 +6615,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
         <v>85</v>
       </c>
@@ -6628,7 +6633,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>36526</v>
       </c>
@@ -6648,7 +6653,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>36557</v>
       </c>
@@ -6672,7 +6677,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>36586</v>
       </c>
@@ -6698,7 +6703,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>36617</v>
       </c>
@@ -6722,7 +6727,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>36647</v>
       </c>
@@ -6746,7 +6751,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>36678</v>
       </c>
@@ -6770,7 +6775,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>36708</v>
       </c>
@@ -6796,7 +6801,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>102</v>
@@ -6816,7 +6821,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>36739</v>
       </c>
@@ -6840,7 +6845,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>36770</v>
       </c>
@@ -6866,7 +6871,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>213</v>
@@ -6886,7 +6891,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>36800</v>
       </c>
@@ -6910,7 +6915,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <v>36831</v>
       </c>
@@ -6934,7 +6939,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>36861</v>
       </c>
@@ -6958,7 +6963,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>184</v>
@@ -6978,7 +6983,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="47" t="s">
         <v>62</v>
       </c>
@@ -6996,7 +7001,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>36892</v>
       </c>
@@ -7020,7 +7025,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>36923</v>
       </c>
@@ -7044,7 +7049,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>36951</v>
       </c>
@@ -7068,7 +7073,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>36982</v>
       </c>
@@ -7092,7 +7097,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>37012</v>
       </c>
@@ -7116,7 +7121,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>37043</v>
       </c>
@@ -7140,7 +7145,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>37073</v>
       </c>
@@ -7166,7 +7171,7 @@
         <v>37095</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>88</v>
@@ -7190,7 +7195,7 @@
         <v>37120</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>46</v>
@@ -7210,7 +7215,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>222</v>
@@ -7230,7 +7235,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="48"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>37104</v>
       </c>
@@ -7252,7 +7257,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="48"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>37135</v>
       </c>
@@ -7276,7 +7281,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>37165</v>
       </c>
@@ -7302,7 +7307,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>224</v>
@@ -7322,7 +7327,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>37196</v>
       </c>
@@ -7346,7 +7351,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>37226</v>
       </c>
@@ -7370,7 +7375,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>227</v>
@@ -7390,7 +7395,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="47" t="s">
         <v>63</v>
       </c>
@@ -7408,7 +7413,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>37257</v>
       </c>
@@ -7432,7 +7437,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>37288</v>
       </c>
@@ -7458,7 +7463,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>88</v>
@@ -7480,7 +7485,7 @@
         <v>37309</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>230</v>
@@ -7500,7 +7505,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>37316</v>
       </c>
@@ -7526,7 +7531,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>231</v>
@@ -7546,7 +7551,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>37347</v>
       </c>
@@ -7570,7 +7575,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>37377</v>
       </c>
@@ -7594,7 +7599,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>37408</v>
       </c>
@@ -7620,7 +7625,7 @@
         <v>37421</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>234</v>
@@ -7640,7 +7645,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="48"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>37438</v>
       </c>
@@ -7666,7 +7671,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>88</v>
@@ -7688,7 +7693,7 @@
         <v>37453</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>208</v>
@@ -7708,7 +7713,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>37469</v>
       </c>
@@ -7734,7 +7739,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>46</v>
@@ -7754,7 +7759,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>236</v>
@@ -7774,7 +7779,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>37500</v>
       </c>
@@ -7800,7 +7805,7 @@
         <v>37508</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>134</v>
@@ -7820,7 +7825,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="48"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>37530</v>
       </c>
@@ -7846,7 +7851,7 @@
         <v>37543</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>236</v>
@@ -7866,7 +7871,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="48"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>37561</v>
       </c>
@@ -7892,7 +7897,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>239</v>
@@ -7912,7 +7917,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>37591</v>
       </c>
@@ -7938,7 +7943,7 @@
         <v>37599</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>88</v>
@@ -7960,7 +7965,7 @@
         <v>37616</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>222</v>
@@ -7980,7 +7985,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="47" t="s">
         <v>64</v>
       </c>
@@ -7998,7 +8003,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>37622</v>
       </c>
@@ -8024,7 +8029,7 @@
         <v>37641</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>37653</v>
       </c>
@@ -8044,7 +8049,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>37681</v>
       </c>
@@ -8070,7 +8075,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>37712</v>
       </c>
@@ -8096,7 +8101,7 @@
         <v>37734</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>46</v>
@@ -8116,7 +8121,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>37742</v>
       </c>
@@ -8136,7 +8141,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>37773</v>
       </c>
@@ -8162,7 +8167,7 @@
         <v>37781</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>243</v>
@@ -8182,7 +8187,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>37803</v>
       </c>
@@ -8206,7 +8211,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>236</v>
@@ -8226,7 +8231,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>37834</v>
       </c>
@@ -8252,7 +8257,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>245</v>
@@ -8272,7 +8277,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>37865</v>
       </c>
@@ -8296,7 +8301,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>37895</v>
       </c>
@@ -8320,7 +8325,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>37926</v>
       </c>
@@ -8344,7 +8349,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>37956</v>
       </c>
@@ -8368,7 +8373,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>248</v>
@@ -8388,7 +8393,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="47" t="s">
         <v>65</v>
       </c>
@@ -8406,7 +8411,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>37987</v>
       </c>
@@ -8430,7 +8435,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>38018</v>
       </c>
@@ -8454,7 +8459,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>38047</v>
       </c>
@@ -8478,7 +8483,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>38078</v>
       </c>
@@ -8502,7 +8507,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>38108</v>
       </c>
@@ -8526,7 +8531,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>38139</v>
       </c>
@@ -8552,7 +8557,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>253</v>
@@ -8572,7 +8577,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>38169</v>
       </c>
@@ -8596,7 +8601,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>38200</v>
       </c>
@@ -8622,7 +8627,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>169</v>
@@ -8642,7 +8647,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>46</v>
@@ -8662,7 +8667,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>88</v>
@@ -8684,7 +8689,7 @@
         <v>38226</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>38231</v>
       </c>
@@ -8708,7 +8713,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>38261</v>
       </c>
@@ -8732,7 +8737,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>38292</v>
       </c>
@@ -8754,7 +8759,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>258</v>
@@ -8774,7 +8779,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>38322</v>
       </c>
@@ -8798,7 +8803,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="47" t="s">
         <v>66</v>
       </c>
@@ -8816,7 +8821,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>38353</v>
       </c>
@@ -8842,7 +8847,7 @@
         <v>38362</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>259</v>
@@ -8862,7 +8867,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="48"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>38384</v>
       </c>
@@ -8888,7 +8893,7 @@
         <v>38398</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>260</v>
@@ -8908,7 +8913,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="48"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>38412</v>
       </c>
@@ -8934,7 +8939,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>262</v>
@@ -8954,7 +8959,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>38443</v>
       </c>
@@ -8978,7 +8983,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>38473</v>
       </c>
@@ -9002,7 +9007,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>38504</v>
       </c>
@@ -9026,7 +9031,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>38534</v>
       </c>
@@ -9050,7 +9055,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>38565</v>
       </c>
@@ -9076,7 +9081,7 @@
         <v>38565</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>105</v>
@@ -9098,7 +9103,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>268</v>
@@ -9118,7 +9123,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>38596</v>
       </c>
@@ -9142,7 +9147,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>38626</v>
       </c>
@@ -9166,7 +9171,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>38657</v>
       </c>
@@ -9190,7 +9195,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>38687</v>
       </c>
@@ -9214,7 +9219,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>47</v>
@@ -9234,7 +9239,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="47" t="s">
         <v>67</v>
       </c>
@@ -9252,7 +9257,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>38718</v>
       </c>
@@ -9278,7 +9283,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>274</v>
@@ -9298,7 +9303,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>38749</v>
       </c>
@@ -9324,7 +9329,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>48</v>
@@ -9346,7 +9351,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>277</v>
@@ -9366,7 +9371,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>38777</v>
       </c>
@@ -9390,7 +9395,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>88</v>
@@ -9412,7 +9417,7 @@
         <v>38804</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>46</v>
@@ -9432,7 +9437,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>278</v>
@@ -9452,7 +9457,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>38808</v>
       </c>
@@ -9476,7 +9481,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>88</v>
@@ -9498,7 +9503,7 @@
         <v>38845</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>38838</v>
       </c>
@@ -9522,7 +9527,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>38869</v>
       </c>
@@ -9548,7 +9553,7 @@
         <v>38894</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>283</v>
@@ -9568,7 +9573,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="48"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>38899</v>
       </c>
@@ -9594,7 +9599,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>105</v>
@@ -9616,7 +9621,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>284</v>
@@ -9636,7 +9641,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>38930</v>
       </c>
@@ -9660,7 +9665,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>38961</v>
       </c>
@@ -9686,7 +9691,7 @@
         <v>38971</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>105</v>
@@ -9708,7 +9713,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>287</v>
@@ -9728,7 +9733,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>38991</v>
       </c>
@@ -9754,7 +9759,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>88</v>
@@ -9776,7 +9781,7 @@
         <v>38993</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>290</v>
@@ -9796,7 +9801,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="48"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>39022</v>
       </c>
@@ -9820,7 +9825,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>39052</v>
       </c>
@@ -9846,7 +9851,7 @@
         <v>39062</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>47</v>
@@ -9866,7 +9871,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="48"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>292</v>
@@ -9886,7 +9891,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="48"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="47" t="s">
         <v>68</v>
       </c>
@@ -9904,7 +9909,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>39083</v>
       </c>
@@ -9928,7 +9933,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>39114</v>
       </c>
@@ -9950,7 +9955,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>294</v>
@@ -9970,7 +9975,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>39142</v>
       </c>
@@ -9996,7 +10001,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>46</v>
@@ -10016,7 +10021,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>296</v>
@@ -10036,7 +10041,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <v>39173</v>
       </c>
@@ -10060,7 +10065,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <v>39203</v>
       </c>
@@ -10084,7 +10089,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>39234</v>
       </c>
@@ -10108,7 +10113,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>39264</v>
       </c>
@@ -10134,7 +10139,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>301</v>
@@ -10154,7 +10159,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>39295</v>
       </c>
@@ -10178,7 +10183,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>39326</v>
       </c>
@@ -10202,7 +10207,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>39356</v>
       </c>
@@ -10228,7 +10233,7 @@
         <v>39357</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>88</v>
@@ -10248,7 +10253,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>304</v>
@@ -10268,7 +10273,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>39387</v>
       </c>
@@ -10294,7 +10299,7 @@
         <v>39405</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>88</v>
@@ -10316,7 +10321,7 @@
         <v>39426</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>305</v>
@@ -10336,7 +10341,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>39417</v>
       </c>
@@ -10362,7 +10367,7 @@
         <v>39443</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>306</v>
@@ -10382,7 +10387,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="48"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="47" t="s">
         <v>69</v>
       </c>
@@ -10400,7 +10405,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>39448</v>
       </c>
@@ -10426,7 +10431,7 @@
         <v>39468</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>307</v>
@@ -10446,7 +10451,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="48"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <v>39479</v>
       </c>
@@ -10470,7 +10475,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>309</v>
@@ -10490,7 +10495,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>39508</v>
       </c>
@@ -10514,7 +10519,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
         <v>311</v>
@@ -10534,7 +10539,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <v>39539</v>
       </c>
@@ -10558,7 +10563,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>314</v>
@@ -10578,7 +10583,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <v>39569</v>
       </c>
@@ -10604,7 +10609,7 @@
         <v>39591</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>315</v>
@@ -10624,7 +10629,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>39600</v>
       </c>
@@ -10650,7 +10655,7 @@
         <v>39623</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>316</v>
@@ -10670,7 +10675,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="48"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <v>39630</v>
       </c>
@@ -10696,7 +10701,7 @@
         <v>39633</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>88</v>
@@ -10718,7 +10723,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>317</v>
@@ -10738,7 +10743,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>39661</v>
       </c>
@@ -10762,7 +10767,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <v>39692</v>
       </c>
@@ -10788,7 +10793,7 @@
         <v>39694</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>318</v>
@@ -10808,7 +10813,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="48"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <v>39722</v>
       </c>
@@ -10834,7 +10839,7 @@
         <v>39738</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>319</v>
@@ -10854,7 +10859,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="48"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <v>39753</v>
       </c>
@@ -10878,7 +10883,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <v>39783</v>
       </c>
@@ -10902,7 +10907,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="47" t="s">
         <v>70</v>
       </c>
@@ -10920,7 +10925,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>39814</v>
       </c>
@@ -10944,7 +10949,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>39845</v>
       </c>
@@ -10970,7 +10975,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>324</v>
@@ -10990,7 +10995,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <v>39873</v>
       </c>
@@ -11014,7 +11019,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <v>39904</v>
       </c>
@@ -11038,7 +11043,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>327</v>
@@ -11058,7 +11063,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <v>39934</v>
       </c>
@@ -11084,7 +11089,7 @@
         <v>39944</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>328</v>
@@ -11104,7 +11109,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="48"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <v>39965</v>
       </c>
@@ -11128,7 +11133,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <v>39995</v>
       </c>
@@ -11154,7 +11159,7 @@
         <v>40024</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>48</v>
@@ -11176,7 +11181,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>46</v>
@@ -11196,7 +11201,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
         <v>46</v>
@@ -11216,7 +11221,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>330</v>
@@ -11236,7 +11241,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <v>40026</v>
       </c>
@@ -11260,7 +11265,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <v>40057</v>
       </c>
@@ -11284,7 +11289,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <v>40087</v>
       </c>
@@ -11310,7 +11315,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>48</v>
@@ -11332,7 +11337,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>336</v>
@@ -11352,7 +11357,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <v>40118</v>
       </c>
@@ -11378,7 +11383,7 @@
         <v>40126</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>338</v>
@@ -11398,7 +11403,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <v>40148</v>
       </c>
@@ -11424,7 +11429,7 @@
         <v>40151</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>339</v>
@@ -11444,7 +11449,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="48"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="47" t="s">
         <v>71</v>
       </c>
@@ -11462,7 +11467,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <v>40179</v>
       </c>
@@ -11486,7 +11491,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>40210</v>
       </c>
@@ -11510,7 +11515,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>40238</v>
       </c>
@@ -11534,7 +11539,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>46</v>
@@ -11554,7 +11559,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>343</v>
@@ -11574,7 +11579,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>40269</v>
       </c>
@@ -11600,7 +11605,7 @@
         <v>40291</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>345</v>
@@ -11620,7 +11625,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <v>40299</v>
       </c>
@@ -11644,7 +11649,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <v>40330</v>
       </c>
@@ -11668,7 +11673,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>48</v>
@@ -11690,7 +11695,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <v>40360</v>
       </c>
@@ -11714,7 +11719,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>48</v>
@@ -11736,7 +11741,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>40391</v>
       </c>
@@ -11762,7 +11767,7 @@
         <v>40396</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>88</v>
@@ -11784,7 +11789,7 @@
         <v>40410</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>46</v>
@@ -11804,7 +11809,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23"/>
       <c r="B418" s="20" t="s">
         <v>342</v>
@@ -11824,7 +11829,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <v>40422</v>
       </c>
@@ -11850,7 +11855,7 @@
         <v>40441</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>105</v>
@@ -11872,7 +11877,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>258</v>
@@ -11892,7 +11897,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <v>40452</v>
       </c>
@@ -11916,7 +11921,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <v>40483</v>
       </c>
@@ -11942,7 +11947,7 @@
         <v>40490</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>88</v>
@@ -11964,7 +11969,7 @@
         <v>40497</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>88</v>
@@ -11986,7 +11991,7 @@
         <v>40504</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>354</v>
@@ -12006,7 +12011,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <v>40513</v>
       </c>
@@ -12030,7 +12035,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="47" t="s">
         <v>72</v>
       </c>
@@ -12048,7 +12053,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <v>40544</v>
       </c>
@@ -12072,7 +12077,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <v>40575</v>
       </c>
@@ -12096,7 +12101,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <v>40603</v>
       </c>
@@ -12120,7 +12125,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23"/>
       <c r="B432" s="20" t="s">
         <v>46</v>
@@ -12140,7 +12145,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>358</v>
@@ -12160,7 +12165,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <v>40634</v>
       </c>
@@ -12184,7 +12189,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <v>40664</v>
       </c>
@@ -12210,7 +12215,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>363</v>
@@ -12230,7 +12235,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <v>40695</v>
       </c>
@@ -12254,7 +12259,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <v>40725</v>
       </c>
@@ -12278,7 +12283,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>366</v>
@@ -12298,7 +12303,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <v>40756</v>
       </c>
@@ -12324,7 +12329,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23"/>
       <c r="B441" s="20" t="s">
         <v>368</v>
@@ -12344,7 +12349,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="48"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23">
         <v>40787</v>
       </c>
@@ -12368,7 +12373,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <v>40817</v>
       </c>
@@ -12392,7 +12397,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <v>40848</v>
       </c>
@@ -12416,7 +12421,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <v>40878</v>
       </c>
@@ -12442,7 +12447,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>88</v>
@@ -12464,7 +12469,7 @@
         <v>40889</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>372</v>
@@ -12484,7 +12489,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="47" t="s">
         <v>73</v>
       </c>
@@ -12502,7 +12507,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <v>40909</v>
       </c>
@@ -12528,7 +12533,7 @@
         <v>40924</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23"/>
       <c r="B450" s="20" t="s">
         <v>373</v>
@@ -12548,7 +12553,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <v>40940</v>
       </c>
@@ -12574,7 +12579,7 @@
         <v>40952</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>366</v>
@@ -12594,7 +12599,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23">
         <v>40969</v>
       </c>
@@ -12618,7 +12623,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <v>41000</v>
       </c>
@@ -12640,7 +12645,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>375</v>
@@ -12660,7 +12665,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23">
         <v>41030</v>
       </c>
@@ -12686,7 +12691,7 @@
         <v>41046</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>88</v>
@@ -12708,7 +12713,7 @@
         <v>41054</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>376</v>
@@ -12728,7 +12733,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <v>41061</v>
       </c>
@@ -12752,7 +12757,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23">
         <v>41091</v>
       </c>
@@ -12778,7 +12783,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>46</v>
@@ -12798,7 +12803,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23"/>
       <c r="B462" s="20" t="s">
         <v>378</v>
@@ -12818,7 +12823,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <v>41122</v>
       </c>
@@ -12842,7 +12847,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23">
         <v>41153</v>
       </c>
@@ -12868,7 +12873,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
         <v>382</v>
@@ -12888,7 +12893,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <v>41183</v>
       </c>
@@ -12912,7 +12917,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23">
         <v>41214</v>
       </c>
@@ -12936,7 +12941,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23">
         <v>41244</v>
       </c>
@@ -12960,7 +12965,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="47" t="s">
         <v>74</v>
       </c>
@@ -12978,7 +12983,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <v>41275</v>
       </c>
@@ -13002,7 +13007,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <v>41306</v>
       </c>
@@ -13026,7 +13031,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <v>41334</v>
       </c>
@@ -13050,7 +13055,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <v>41365</v>
       </c>
@@ -13074,7 +13079,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23"/>
       <c r="B474" s="20" t="s">
         <v>390</v>
@@ -13094,7 +13099,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23">
         <v>41395</v>
       </c>
@@ -13120,7 +13125,7 @@
         <v>41396</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23"/>
       <c r="B476" s="20" t="s">
         <v>391</v>
@@ -13140,7 +13145,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23">
         <v>41426</v>
       </c>
@@ -13164,7 +13169,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23">
         <v>41456</v>
       </c>
@@ -13188,7 +13193,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <v>41487</v>
       </c>
@@ -13212,7 +13217,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>394</v>
@@ -13232,7 +13237,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23">
         <v>41518</v>
       </c>
@@ -13258,7 +13263,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23"/>
       <c r="B482" s="20" t="s">
         <v>397</v>
@@ -13278,7 +13283,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23">
         <v>41548</v>
       </c>
@@ -13302,7 +13307,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <v>41579</v>
       </c>
@@ -13326,7 +13331,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <v>41609</v>
       </c>
@@ -13350,7 +13355,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="47" t="s">
         <v>75</v>
       </c>
@@ -13368,7 +13373,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23">
         <v>41640</v>
       </c>
@@ -13392,7 +13397,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23">
         <v>41671</v>
       </c>
@@ -13416,7 +13421,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <v>41699</v>
       </c>
@@ -13440,7 +13445,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23"/>
       <c r="B490" s="20" t="s">
         <v>88</v>
@@ -13462,7 +13467,7 @@
         <v>41725</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23"/>
       <c r="B491" s="20" t="s">
         <v>46</v>
@@ -13482,7 +13487,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23"/>
       <c r="B492" s="20" t="s">
         <v>403</v>
@@ -13502,7 +13507,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23">
         <v>41730</v>
       </c>
@@ -13526,7 +13531,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23">
         <v>41760</v>
       </c>
@@ -13552,7 +13557,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>408</v>
@@ -13572,7 +13577,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23">
         <v>41791</v>
       </c>
@@ -13596,7 +13601,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23">
         <v>41821</v>
       </c>
@@ -13616,7 +13621,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23">
         <v>41852</v>
       </c>
@@ -13642,7 +13647,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23"/>
       <c r="B499" s="20" t="s">
         <v>410</v>
@@ -13662,7 +13667,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23">
         <v>41883</v>
       </c>
@@ -13688,7 +13693,7 @@
         <v>41897</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23"/>
       <c r="B501" s="20" t="s">
         <v>209</v>
@@ -13708,7 +13713,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="48"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23">
         <v>41913</v>
       </c>
@@ -13732,7 +13737,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23">
         <v>41944</v>
       </c>
@@ -13758,7 +13763,7 @@
         <v>41982</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23"/>
       <c r="B504" s="20" t="s">
         <v>115</v>
@@ -13778,7 +13783,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="48"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="23">
         <v>41974</v>
       </c>
@@ -13802,7 +13807,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="47" t="s">
         <v>76</v>
       </c>
@@ -13820,7 +13825,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23">
         <v>42005</v>
       </c>
@@ -13840,7 +13845,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23">
         <v>42036</v>
       </c>
@@ -13864,7 +13869,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="23">
         <v>42064</v>
       </c>
@@ -13888,7 +13893,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23">
         <v>42095</v>
       </c>
@@ -13912,7 +13917,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23"/>
       <c r="B511" s="20" t="s">
         <v>46</v>
@@ -13932,7 +13937,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>414</v>
@@ -13952,7 +13957,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="23">
         <v>42125</v>
       </c>
@@ -13978,7 +13983,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="23"/>
       <c r="B514" s="20" t="s">
         <v>99</v>
@@ -13998,7 +14003,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23">
         <v>42156</v>
       </c>
@@ -14024,7 +14029,7 @@
         <v>42178</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>418</v>
@@ -14044,7 +14049,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="48"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23">
         <v>42186</v>
       </c>
@@ -14070,7 +14075,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23"/>
       <c r="B518" s="20" t="s">
         <v>420</v>
@@ -14090,7 +14095,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="23">
         <v>42217</v>
       </c>
@@ -14114,7 +14119,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="23">
         <v>42248</v>
       </c>
@@ -14138,7 +14143,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="23">
         <v>42278</v>
       </c>
@@ -14164,7 +14169,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="23"/>
       <c r="B522" s="20" t="s">
         <v>88</v>
@@ -14186,7 +14191,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="23"/>
       <c r="B523" s="20" t="s">
         <v>423</v>
@@ -14206,7 +14211,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="23">
         <v>42309</v>
       </c>
@@ -14232,7 +14237,7 @@
         <v>42331</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="23"/>
       <c r="B525" s="20" t="s">
         <v>88</v>
@@ -14254,7 +14259,7 @@
         <v>42342</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="23"/>
       <c r="B526" s="20" t="s">
         <v>260</v>
@@ -14274,7 +14279,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="23">
         <v>42339</v>
       </c>
@@ -14298,7 +14303,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="23"/>
       <c r="B528" s="20" t="s">
         <v>424</v>
@@ -14318,7 +14323,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="47" t="s">
         <v>77</v>
       </c>
@@ -14336,7 +14341,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="23">
         <v>42370</v>
       </c>
@@ -14360,7 +14365,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="23">
         <v>42401</v>
       </c>
@@ -14384,7 +14389,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23">
         <v>42430</v>
       </c>
@@ -14410,7 +14415,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="23"/>
       <c r="B533" s="20" t="s">
         <v>46</v>
@@ -14430,7 +14435,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
         <v>427</v>
@@ -14450,7 +14455,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="48"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="23">
         <v>42461</v>
       </c>
@@ -14474,7 +14479,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="23">
         <v>42491</v>
       </c>
@@ -14498,7 +14503,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="23">
         <v>42522</v>
       </c>
@@ -14522,7 +14527,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="23">
         <v>42552</v>
       </c>
@@ -14546,7 +14551,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="23">
         <v>42583</v>
       </c>
@@ -14572,7 +14577,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="23"/>
       <c r="B540" s="20" t="s">
         <v>409</v>
@@ -14592,7 +14597,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="48"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="23">
         <v>42614</v>
       </c>
@@ -14616,7 +14621,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="23">
         <v>42644</v>
       </c>
@@ -14640,7 +14645,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="23">
         <v>42675</v>
       </c>
@@ -14666,7 +14671,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="23"/>
       <c r="B544" s="20" t="s">
         <v>431</v>
@@ -14686,7 +14691,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="48"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="23">
         <v>42705</v>
       </c>
@@ -14710,7 +14715,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="23"/>
       <c r="B546" s="20" t="s">
         <v>433</v>
@@ -14730,7 +14735,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="47" t="s">
         <v>78</v>
       </c>
@@ -14748,7 +14753,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="23">
         <v>42736</v>
       </c>
@@ -14772,7 +14777,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="23">
         <v>42767</v>
       </c>
@@ -14798,7 +14803,7 @@
         <v>42786</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="23"/>
       <c r="B550" s="20" t="s">
         <v>408</v>
@@ -14818,7 +14823,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="48"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="23">
         <v>42795</v>
       </c>
@@ -14844,7 +14849,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="23"/>
       <c r="B552" s="20" t="s">
         <v>46</v>
@@ -14864,7 +14869,7 @@
         <v>42850</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="23"/>
       <c r="B553" s="20" t="s">
         <v>257</v>
@@ -14884,7 +14889,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="23">
         <v>42826</v>
       </c>
@@ -14908,7 +14913,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="23">
         <v>42856</v>
       </c>
@@ -14932,7 +14937,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="23">
         <v>42887</v>
       </c>
@@ -14958,7 +14963,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="23"/>
       <c r="B557" s="20" t="s">
         <v>88</v>
@@ -14980,7 +14985,7 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="23"/>
       <c r="B558" s="20" t="s">
         <v>437</v>
@@ -15000,7 +15005,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="23">
         <v>42917</v>
       </c>
@@ -15024,7 +15029,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="23">
         <v>42948</v>
       </c>
@@ -15048,7 +15053,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="23"/>
       <c r="B561" s="20" t="s">
         <v>440</v>
@@ -15068,7 +15073,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="23">
         <v>42979</v>
       </c>
@@ -15092,7 +15097,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="23">
         <v>43009</v>
       </c>
@@ -15116,7 +15121,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="23">
         <v>43040</v>
       </c>
@@ -15140,7 +15145,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="23">
         <v>43070</v>
       </c>
@@ -15160,7 +15165,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="47" t="s">
         <v>43</v>
       </c>
@@ -15180,7 +15185,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="39">
         <v>43101</v>
       </c>
@@ -15200,7 +15205,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="39">
         <v>43132</v>
       </c>
@@ -15220,7 +15225,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="39">
         <v>43160</v>
       </c>
@@ -15244,7 +15249,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="39">
         <v>43191</v>
       </c>
@@ -15268,7 +15273,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="39">
         <v>43221</v>
       </c>
@@ -15288,7 +15293,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="39">
         <v>43252</v>
       </c>
@@ -15308,7 +15313,7 @@
       <c r="J572" s="12"/>
       <c r="K572" s="15"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="39">
         <v>43282</v>
       </c>
@@ -15328,7 +15333,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="39">
         <v>43313</v>
       </c>
@@ -15350,7 +15355,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="39">
         <v>43344</v>
       </c>
@@ -15370,7 +15375,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="39">
         <v>43374</v>
       </c>
@@ -15390,7 +15395,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="39">
         <v>43405</v>
       </c>
@@ -15410,7 +15415,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="39">
         <v>43435</v>
       </c>
@@ -15434,7 +15439,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="47" t="s">
         <v>44</v>
       </c>
@@ -15452,7 +15457,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="39">
         <v>43466</v>
       </c>
@@ -15472,7 +15477,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="39">
         <v>43497</v>
       </c>
@@ -15492,7 +15497,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="39">
         <v>43525</v>
       </c>
@@ -15512,7 +15517,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="39">
         <v>43556</v>
       </c>
@@ -15536,7 +15541,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="39">
         <v>43586</v>
       </c>
@@ -15556,7 +15561,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="39">
         <v>43617</v>
       </c>
@@ -15576,7 +15581,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="39">
         <v>43647</v>
       </c>
@@ -15602,7 +15607,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="39"/>
       <c r="B587" s="20" t="s">
         <v>46</v>
@@ -15619,7 +15624,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="39">
         <v>43678</v>
       </c>
@@ -15639,7 +15644,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="39">
         <v>43709</v>
       </c>
@@ -15659,7 +15664,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="39">
         <v>43739</v>
       </c>
@@ -15685,7 +15690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="39"/>
       <c r="B591" s="20" t="s">
         <v>51</v>
@@ -15704,7 +15709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="39">
         <v>43770</v>
       </c>
@@ -15724,7 +15729,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="39">
         <v>43800</v>
       </c>
@@ -15748,7 +15753,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="47" t="s">
         <v>45</v>
       </c>
@@ -15766,7 +15771,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="39">
         <v>43831</v>
       </c>
@@ -15790,7 +15795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="39">
         <v>43862</v>
       </c>
@@ -15810,7 +15815,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="39">
         <v>43891</v>
       </c>
@@ -15830,7 +15835,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="39">
         <v>43922</v>
       </c>
@@ -15850,7 +15855,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="39">
         <v>43952</v>
       </c>
@@ -15870,7 +15875,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="39">
         <v>43983</v>
       </c>
@@ -15890,7 +15895,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="39">
         <v>44013</v>
       </c>
@@ -15910,7 +15915,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="39">
         <v>44044</v>
       </c>
@@ -15930,7 +15935,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="39">
         <v>44075</v>
       </c>
@@ -15950,7 +15955,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="39">
         <v>44105</v>
       </c>
@@ -15970,7 +15975,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="39">
         <v>44136</v>
       </c>
@@ -15990,7 +15995,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39">
         <v>44166</v>
       </c>
@@ -16014,7 +16019,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="47" t="s">
         <v>57</v>
       </c>
@@ -16032,7 +16037,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="39">
         <v>44197</v>
       </c>
@@ -16052,7 +16057,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39">
         <v>44228</v>
       </c>
@@ -16072,7 +16077,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="39">
         <v>44256</v>
       </c>
@@ -16092,7 +16097,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="39">
         <v>44287</v>
       </c>
@@ -16112,7 +16117,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39">
         <v>44317</v>
       </c>
@@ -16132,7 +16137,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="39">
         <v>44348</v>
       </c>
@@ -16152,7 +16157,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="39">
         <v>44378</v>
       </c>
@@ -16172,7 +16177,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="39">
         <v>44409</v>
       </c>
@@ -16192,7 +16197,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="39">
         <v>44440</v>
       </c>
@@ -16212,7 +16217,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39">
         <v>44470</v>
       </c>
@@ -16232,7 +16237,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39">
         <v>44501</v>
       </c>
@@ -16252,7 +16257,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39">
         <v>44531</v>
       </c>
@@ -16276,7 +16281,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="47" t="s">
         <v>58</v>
       </c>
@@ -16294,7 +16299,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39">
         <v>44562</v>
       </c>
@@ -16314,7 +16319,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39">
         <v>44593</v>
       </c>
@@ -16334,7 +16339,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39">
         <v>44621</v>
       </c>
@@ -16358,7 +16363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="39">
         <v>44652</v>
       </c>
@@ -16382,7 +16387,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39">
         <v>44682</v>
       </c>
@@ -16402,7 +16407,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="39">
         <v>44713</v>
       </c>
@@ -16422,7 +16427,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="39">
         <v>44743</v>
       </c>
@@ -16442,7 +16447,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="39">
         <v>44774</v>
       </c>
@@ -16468,7 +16473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="39">
         <v>44805</v>
       </c>
@@ -16488,7 +16493,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="39">
         <v>44835</v>
       </c>
@@ -16508,7 +16513,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="39">
         <v>44866</v>
       </c>
@@ -16528,7 +16533,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="39">
         <v>44896</v>
       </c>
@@ -16548,7 +16553,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="47" t="s">
         <v>93</v>
       </c>
@@ -16566,7 +16571,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="39">
         <v>44927</v>
       </c>
@@ -16586,7 +16591,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="39">
         <v>44958</v>
       </c>
@@ -16606,7 +16611,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="39">
         <v>44986</v>
       </c>
@@ -16626,7 +16631,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="39">
         <v>45017</v>
       </c>
@@ -16650,20 +16655,22 @@
         <v>94</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="39">
         <v>45047</v>
       </c>
       <c r="B638" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C638" s="13"/>
+      <c r="C638" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D638" s="38"/>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
-      <c r="G638" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G638" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H638" s="38">
         <v>1</v>
@@ -16674,9 +16681,11 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="39"/>
-      <c r="B639" s="20"/>
+      <c r="B639" s="20" t="s">
+        <v>442</v>
+      </c>
       <c r="C639" s="13"/>
       <c r="D639" s="38"/>
       <c r="E639" s="9"/>
@@ -16685,13 +16694,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H639" s="38"/>
+      <c r="H639" s="38">
+        <v>19</v>
+      </c>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="20"/>
-    </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A640" s="39"/>
+      <c r="K639" s="48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A640" s="39">
+        <v>45078</v>
+      </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
       <c r="D640" s="38"/>
@@ -16704,9 +16719,9 @@
       <c r="H640" s="38"/>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="20"/>
-    </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K640" s="48"/>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="39"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16722,7 +16737,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="39"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16738,7 +16753,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="39"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16754,7 +16769,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="39"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16770,7 +16785,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="39"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16786,7 +16801,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="39"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -16802,7 +16817,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="39"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -16818,7 +16833,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="39"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -16834,7 +16849,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="39"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -16850,7 +16865,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="39"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -16866,7 +16881,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="39"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -16882,7 +16897,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="39"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -16898,7 +16913,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="39"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -16914,7 +16929,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="39"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -16930,7 +16945,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="39"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -16946,7 +16961,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="39"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -16962,7 +16977,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="39"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16978,7 +16993,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="39"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16994,7 +17009,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="39"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17010,7 +17025,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="39"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17026,7 +17041,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="39"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17042,7 +17057,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="39"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17058,7 +17073,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="39"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17074,7 +17089,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="39"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17090,7 +17105,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="39"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17106,7 +17121,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="39"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17122,7 +17137,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="39"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17138,7 +17153,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="39"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17154,7 +17169,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="39"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17170,7 +17185,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="39"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17186,7 +17201,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="39"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17202,7 +17217,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="39"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17218,7 +17233,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="39"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17234,7 +17249,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="39"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17250,7 +17265,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="39"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17266,7 +17281,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="39"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17282,7 +17297,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="39"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17298,7 +17313,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="39"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17314,7 +17329,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="39"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17330,7 +17345,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="39"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17346,7 +17361,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="39"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17362,7 +17377,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="39"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17378,7 +17393,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="39"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17394,7 +17409,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="39"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17410,7 +17425,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="39"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17426,7 +17441,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="39"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17442,7 +17457,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="39"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17458,7 +17473,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="39"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17474,21 +17489,53 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A689" s="40"/>
-      <c r="B689" s="15"/>
-      <c r="C689" s="41"/>
-      <c r="D689" s="42"/>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A689" s="39"/>
+      <c r="B689" s="20"/>
+      <c r="C689" s="13"/>
+      <c r="D689" s="38"/>
       <c r="E689" s="9"/>
-      <c r="F689" s="15"/>
-      <c r="G689" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H689" s="42"/>
+      <c r="F689" s="20"/>
+      <c r="G689" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H689" s="38"/>
       <c r="I689" s="9"/>
-      <c r="J689" s="12"/>
-      <c r="K689" s="15"/>
+      <c r="J689" s="11"/>
+      <c r="K689" s="20"/>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A690" s="39"/>
+      <c r="B690" s="20"/>
+      <c r="C690" s="13"/>
+      <c r="D690" s="38"/>
+      <c r="E690" s="9"/>
+      <c r="F690" s="20"/>
+      <c r="G690" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H690" s="38"/>
+      <c r="I690" s="9"/>
+      <c r="J690" s="11"/>
+      <c r="K690" s="20"/>
+    </row>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A691" s="40"/>
+      <c r="B691" s="15"/>
+      <c r="C691" s="41"/>
+      <c r="D691" s="42"/>
+      <c r="E691" s="9"/>
+      <c r="F691" s="15"/>
+      <c r="G691" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H691" s="42"/>
+      <c r="I691" s="9"/>
+      <c r="J691" s="12"/>
+      <c r="K691" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17505,10 +17552,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17531,28 +17578,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>32</v>
       </c>
@@ -17565,7 +17612,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17594,7 +17641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>24.69</v>
       </c>
@@ -17624,17 +17671,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -17658,10 +17705,10 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>278.33800000000014</v>
+        <v>261.83800000000014</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -17689,7 +17736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -17715,7 +17762,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -17741,7 +17788,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -17767,7 +17814,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -17793,7 +17840,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -17819,7 +17866,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -17845,7 +17892,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -17871,7 +17918,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -17891,7 +17938,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -17911,7 +17958,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -17931,7 +17978,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -17952,7 +17999,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -17973,7 +18020,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -17994,7 +18041,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -18015,7 +18062,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -18036,7 +18083,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -18057,7 +18104,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -18078,7 +18125,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -18099,7 +18146,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -18120,7 +18167,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -18141,7 +18188,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -18162,7 +18209,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -18183,7 +18230,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -18204,7 +18251,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -18225,7 +18272,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -18246,7 +18293,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -18267,7 +18314,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -18288,7 +18335,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -18309,7 +18356,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -18330,7 +18377,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -18351,7 +18398,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -18360,7 +18407,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -18369,7 +18416,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -18378,7 +18425,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -18387,7 +18434,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -18396,7 +18443,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -18405,7 +18452,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -18414,7 +18461,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -18423,7 +18470,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -18432,7 +18479,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -18441,7 +18488,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -18450,7 +18497,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -18459,7 +18506,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -18468,7 +18515,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -18477,7 +18524,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -18486,7 +18533,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -18495,7 +18542,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -18504,7 +18551,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -18513,7 +18560,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -18522,7 +18569,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -18531,7 +18578,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -18540,7 +18587,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -18549,7 +18596,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -18558,7 +18605,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -18567,7 +18614,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -18576,7 +18623,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -18585,7 +18632,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -18594,7 +18641,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -18603,7 +18650,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -18612,7 +18659,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/ANACAY, ABNER.xlsx
+++ b/REGULAR/OJT/ANACAY, ABNER.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="445">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1365,6 +1365,9 @@
   </si>
   <si>
     <t>5/22/2023 - 6/15/2023</t>
+  </si>
+  <si>
+    <t>6/16/2023 - 07/14/2023</t>
   </si>
 </sst>
 </file>
@@ -2393,10 +2396,10 @@
   </sheetPr>
   <dimension ref="A2:K691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A625" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A634" activePane="bottomLeft"/>
       <selection activeCell="H17" sqref="H17"/>
-      <selection pane="bottomLeft" activeCell="H639" sqref="H639"/>
+      <selection pane="bottomLeft" activeCell="I641" sqref="I641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,7 +2565,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.288000000000125</v>
+        <v>68.538000000000125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2572,7 +2575,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.55</v>
+        <v>176.8</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16708,13 +16711,15 @@
         <v>45078</v>
       </c>
       <c r="B640" s="20"/>
-      <c r="C640" s="13"/>
+      <c r="C640" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D640" s="38"/>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
-      <c r="G640" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G640" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H640" s="38"/>
       <c r="I640" s="9"/>
@@ -16722,8 +16727,12 @@
       <c r="K640" s="48"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="39"/>
-      <c r="B641" s="20"/>
+      <c r="A641" s="39">
+        <v>45108</v>
+      </c>
+      <c r="B641" s="20" t="s">
+        <v>442</v>
+      </c>
       <c r="C641" s="13"/>
       <c r="D641" s="38"/>
       <c r="E641" s="9"/>
@@ -16732,10 +16741,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H641" s="38"/>
+      <c r="H641" s="38">
+        <v>19</v>
+      </c>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="20"/>
+      <c r="K641" s="20" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="39"/>
@@ -17708,7 +17721,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>261.83800000000014</v>
+        <v>245.33800000000014</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/OJT/ANACAY, ABNER.xlsx
+++ b/REGULAR/OJT/ANACAY, ABNER.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="446">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1368,6 +1368,9 @@
   </si>
   <si>
     <t>6/16/2023 - 07/14/2023</t>
+  </si>
+  <si>
+    <t>SL(20-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2397,9 +2400,9 @@
   <dimension ref="A2:K691"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A634" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A631" activePane="bottomLeft"/>
       <selection activeCell="H17" sqref="H17"/>
-      <selection pane="bottomLeft" activeCell="I641" sqref="I641"/>
+      <selection pane="bottomLeft" activeCell="J641" sqref="J641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,7 +2578,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>176.8</v>
+        <v>175.8</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16731,7 +16734,7 @@
         <v>45108</v>
       </c>
       <c r="B641" s="20" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C641" s="13"/>
       <c r="D641" s="38"/>
@@ -16742,7 +16745,7 @@
         <v/>
       </c>
       <c r="H641" s="38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
@@ -17721,7 +17724,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>245.33800000000014</v>
+        <v>244.33800000000014</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/OJT/ANACAY, ABNER.xlsx
+++ b/REGULAR/OJT/ANACAY, ABNER.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="448">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1371,6 +1371,12 @@
   </si>
   <si>
     <t>SL(20-0-0)</t>
+  </si>
+  <si>
+    <t>SL(21-0-0)</t>
+  </si>
+  <si>
+    <t>7/17-21,25-28,31,8/1-4,7-11,14,15/2023</t>
   </si>
 </sst>
 </file>
@@ -2400,9 +2406,9 @@
   <dimension ref="A2:K691"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A631" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A628" activePane="bottomLeft"/>
       <selection activeCell="H17" sqref="H17"/>
-      <selection pane="bottomLeft" activeCell="J641" sqref="J641"/>
+      <selection pane="bottomLeft" activeCell="B643" sqref="B643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,7 +2574,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>68.538000000000125</v>
+        <v>69.788000000000125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2578,7 +2584,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>175.8</v>
+        <v>156.05000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16736,13 +16742,15 @@
       <c r="B641" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="C641" s="13"/>
+      <c r="C641" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D641" s="38"/>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
-      <c r="G641" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G641" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H641" s="38">
         <v>20</v>
@@ -16754,8 +16762,12 @@
       </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" s="39"/>
-      <c r="B642" s="20"/>
+      <c r="A642" s="39">
+        <v>45139</v>
+      </c>
+      <c r="B642" s="20" t="s">
+        <v>446</v>
+      </c>
       <c r="C642" s="13"/>
       <c r="D642" s="38"/>
       <c r="E642" s="9"/>
@@ -16764,10 +16776,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H642" s="38"/>
+      <c r="H642" s="38">
+        <v>21</v>
+      </c>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="20"/>
+      <c r="K642" s="20" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="39"/>
@@ -17724,7 +17740,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>244.33800000000014</v>
+        <v>225.83800000000014</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
